--- a/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-1.xlsx
+++ b/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Noveno Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C62CB8-7A62-4518-B0F3-38B18AB0544C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85E4A8-0846-4867-A583-77895C5ECF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="210" windowWidth="14400" windowHeight="13710" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>CEL</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +560,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D38"/>
+  <dimension ref="A3:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +573,11 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -578,8 +590,11 @@
       <c r="D3" s="7">
         <v>43986</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3860</v>
       </c>
@@ -592,8 +607,11 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4047</v>
       </c>
@@ -606,8 +624,9 @@
       <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1897</v>
       </c>
@@ -620,8 +639,11 @@
       <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2252</v>
       </c>
@@ -634,8 +656,11 @@
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1985</v>
       </c>
@@ -645,8 +670,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2008</v>
       </c>
@@ -656,8 +684,9 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1632</v>
       </c>
@@ -670,8 +699,11 @@
       <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4290</v>
       </c>
@@ -681,8 +713,9 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3375</v>
       </c>
@@ -695,8 +728,11 @@
       <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1658</v>
       </c>
@@ -706,8 +742,11 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>625</v>
       </c>
@@ -720,8 +759,9 @@
       <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1987</v>
       </c>
@@ -732,8 +772,9 @@
         <v>15</v>
       </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1662</v>
       </c>
@@ -743,8 +784,9 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3174</v>
       </c>
@@ -754,8 +796,11 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4291</v>
       </c>
@@ -765,8 +810,9 @@
       <c r="C18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>706</v>
       </c>
@@ -776,8 +822,9 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1666</v>
       </c>
@@ -790,8 +837,11 @@
       <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1697</v>
       </c>
@@ -804,8 +854,11 @@
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4292</v>
       </c>
@@ -818,8 +871,11 @@
       <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3871</v>
       </c>
@@ -832,8 +888,11 @@
       <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1670</v>
       </c>
@@ -846,8 +905,9 @@
       <c r="D24" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4050</v>
       </c>
@@ -860,8 +920,11 @@
       <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1674</v>
       </c>
@@ -874,8 +937,11 @@
       <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2323</v>
       </c>
@@ -888,8 +954,11 @@
       <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4293</v>
       </c>
@@ -902,8 +971,11 @@
       <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4051</v>
       </c>
@@ -916,8 +988,11 @@
       <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>717</v>
       </c>
@@ -927,8 +1002,9 @@
       <c r="C30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1729</v>
       </c>
@@ -941,8 +1017,11 @@
       <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3590</v>
       </c>
@@ -955,8 +1034,11 @@
       <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1679</v>
       </c>
@@ -966,8 +1048,9 @@
       <c r="C33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1707</v>
       </c>
@@ -980,8 +1063,11 @@
       <c r="D34" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4294</v>
       </c>
@@ -994,8 +1080,11 @@
       <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3512</v>
       </c>
@@ -1008,8 +1097,11 @@
       <c r="D36" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>722</v>
       </c>
@@ -1019,14 +1111,25 @@
       <c r="C37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="11">
         <f>COUNTA(D4:D37)</f>
         <v>22</v>
+      </c>
+      <c r="E38" s="11">
+        <f>COUNTA(E4:E37)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="12">
+        <f>E38/B37%</f>
+        <v>64.705882352941174</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-1.xlsx
+++ b/2020/cursos/informatica/Noveno Grado/Listados Informatica 9-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Noveno Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85E4A8-0846-4867-A583-77895C5ECF1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB787312-7402-46B5-B719-20C98C96B5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
   <si>
     <t>Codigo</t>
   </si>
@@ -560,12 +560,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:E39"/>
+  <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,10 +574,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,8 +593,11 @@
       <c r="E3" s="7">
         <v>44028</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3860</v>
       </c>
@@ -610,8 +613,15 @@
       <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <f>IF(E4="PC",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4047</v>
       </c>
@@ -625,8 +635,13 @@
         <v>38</v>
       </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5">
+        <f t="shared" ref="G5:G37" si="0">IF(E5="PC",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1897</v>
       </c>
@@ -642,8 +657,15 @@
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2252</v>
       </c>
@@ -659,8 +681,15 @@
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1985</v>
       </c>
@@ -673,8 +702,13 @@
       <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2008</v>
       </c>
@@ -685,8 +719,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1632</v>
       </c>
@@ -702,8 +741,15 @@
       <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4290</v>
       </c>
@@ -714,8 +760,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3375</v>
       </c>
@@ -731,8 +782,15 @@
       <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1658</v>
       </c>
@@ -745,8 +803,15 @@
       <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>625</v>
       </c>
@@ -760,8 +825,15 @@
         <v>38</v>
       </c>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1987</v>
       </c>
@@ -773,8 +845,13 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1662</v>
       </c>
@@ -785,8 +862,13 @@
         <v>16</v>
       </c>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3174</v>
       </c>
@@ -799,8 +881,15 @@
       <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4291</v>
       </c>
@@ -811,8 +900,15 @@
         <v>18</v>
       </c>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>706</v>
       </c>
@@ -823,8 +919,15 @@
         <v>19</v>
       </c>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1666</v>
       </c>
@@ -840,8 +943,15 @@
       <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1697</v>
       </c>
@@ -857,8 +967,15 @@
       <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4292</v>
       </c>
@@ -874,8 +991,15 @@
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3871</v>
       </c>
@@ -891,8 +1015,15 @@
       <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1670</v>
       </c>
@@ -906,8 +1037,15 @@
         <v>38</v>
       </c>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4050</v>
       </c>
@@ -923,8 +1061,15 @@
       <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1674</v>
       </c>
@@ -940,8 +1085,15 @@
       <c r="E26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2323</v>
       </c>
@@ -957,8 +1109,15 @@
       <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4293</v>
       </c>
@@ -974,8 +1133,15 @@
       <c r="E28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4051</v>
       </c>
@@ -991,8 +1157,13 @@
       <c r="E29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>717</v>
       </c>
@@ -1003,8 +1174,13 @@
         <v>30</v>
       </c>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1729</v>
       </c>
@@ -1020,8 +1196,15 @@
       <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3590</v>
       </c>
@@ -1037,8 +1220,15 @@
       <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1679</v>
       </c>
@@ -1049,8 +1239,15 @@
         <v>33</v>
       </c>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1707</v>
       </c>
@@ -1066,8 +1263,15 @@
       <c r="E34" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4294</v>
       </c>
@@ -1083,8 +1287,15 @@
       <c r="E35" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3512</v>
       </c>
@@ -1100,8 +1311,15 @@
       <c r="E36" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>722</v>
       </c>
@@ -1112,8 +1330,13 @@
         <v>37</v>
       </c>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1348,16 @@
         <f>COUNTA(E4:E37)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="11">
+        <f>COUNTA(F4:F37)</f>
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <f>SUM(G4:G37)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E39" s="12">
         <f>E38/B37%</f>
         <v>64.705882352941174</v>
